--- a/medicine/Psychotrope/Bonnezeaux/Bonnezeaux.xlsx
+++ b/medicine/Psychotrope/Bonnezeaux/Bonnezeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">47° 16′ 36,9″ N, 0° 29′ 04,9″ O
 Le bonnezeaux est un vin blanc liquoreux d'appellation d'origine contrôlée produit en Maine-et-Loire sur la commune de Thouarcé, au bord du Layon. Cette appellation, enclavée au milieu des coteaux-du-layon, fait partie du vignoble de la vallée de la Loire.
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Antiquité
-Moyen Âge
-Le cru de Bonnezeaux est cité en 1055 par les moines du Gué du Berge, dans un document conservé aux archives du château de Fesles[4].
-Période moderne
-Période contemporaine</t>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cru de Bonnezeaux est cité en 1055 par les moines du Gué du Berge, dans un document conservé aux archives du château de Fesles.
+</t>
         </is>
       </c>
     </row>
@@ -543,15 +558,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le nom d'origine celte, ferait allusion à une source ferrugineuse aujourd'hui disparue[5].
-</t>
-        </is>
-      </c>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,15 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Orographie
-Géologie
-Trois coteaux orientés plein sud, au-dessus du bourg de Thouarcé. Terrain schisteux, parsemé de sable gréseux et phtanites. Excellent développement de la pourriture noble et rendement légal plafonné à 25 hl/ha.
-Climatologie</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'origine celte, ferait allusion à une source ferrugineuse aujourd'hui disparue.
+</t>
         </is>
       </c>
     </row>
@@ -607,24 +623,206 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois coteaux orientés plein sud, au-dessus du bourg de Thouarcé. Terrain schisteux, parsemé de sable gréseux et phtanites. Excellent développement de la pourriture noble et rendement légal plafonné à 25 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble a une superficie de 120 hectares dans la commune de Thouarcé (département de Maine-et-Loire) sur la rive droite du Layon.
-Encépagement
-Le bonnezeaux est issu à 100 % du chenin et peut bénéficier de l'action du Botrytis cinerea.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble a une superficie de 120 hectares dans la commune de Thouarcé (département de Maine-et-Loire) sur la rive droite du Layon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bonnezeaux est issu à 100 % du chenin et peut bénéficier de l'action du Botrytis cinerea.
 			Ceps de chenin.
 			Chenin atteint par le botrytis.
 			Feuille de chenin.
-Méthodes culturales
-Pendant les vendanges, les grains sont ramassés manuellement à surmaturité par tries successives.
-Terroir et vins
-Le bonnezeaux est un grand vin moelleux, parfois liquoreux, riche en fruit, volontiers opulent, séveux et parfumé (miel d'acacia, écorce d'orange, tilleul...). Sa robe est dorée et son bouquet développe des arômes de fleurs et de fruits mûrs. Avec l'âge, il gagne de l'ampleur, de l'étoffe, et se pare d'un magnifique bouquet confit.
-Gastronomie, température de service et durée de garde
-Le délai de garde est de 10 à 30 ans, et plus. La température de service est située entre 6-9 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant les vendanges, les grains sont ramassés manuellement à surmaturité par tries successives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bonnezeaux est un grand vin moelleux, parfois liquoreux, riche en fruit, volontiers opulent, séveux et parfumé (miel d'acacia, écorce d'orange, tilleul...). Sa robe est dorée et son bouquet développe des arômes de fleurs et de fruits mûrs. Avec l'âge, il gagne de l'ampleur, de l'étoffe, et se pare d'un magnifique bouquet confit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bonnezeaux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gastronomie, température de service et durée de garde</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le délai de garde est de 10 à 30 ans, et plus. La température de service est située entre 6-9 °C.
 </t>
         </is>
       </c>
